--- a/data/lossofsale_sg_vatakara.xlsx
+++ b/data/lossofsale_sg_vatakara.xlsx
@@ -208,10 +208,10 @@
     <col min="5" max="5" width="17.55" customWidth="1"/>
     <col min="6" max="6" width="10.8" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
-    <col min="8" max="8" width="10.8" customWidth="1"/>
+    <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
     <col min="9" max="9" width="36.45" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="18.900000000000002" customWidth="1"/>
+    <col min="11" max="11" width="43.2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,48 +284,313 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C3">
+        <is>
+          <t xml:space="preserve">pranav</t>
+        </is>
+      </c>
+      <c r="D3" s="65">
+        <v>9746271355</v>
+      </c>
+      <c t="inlineStr" r="E3">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F3">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G3">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H3">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I3">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J3">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K3">
+        <is>
+          <t xml:space="preserve">just checking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="65">
+        <v>2</v>
+      </c>
+      <c t="inlineStr" r="B4">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C4">
+        <is>
+          <t xml:space="preserve">SAYOOJ</t>
+        </is>
+      </c>
+      <c r="D4" s="65">
+        <v>9539251325</v>
+      </c>
+      <c t="inlineStr" r="E4">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F4">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G4">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H4">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I4">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J4">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K4">
+        <is>
+          <t xml:space="preserve">just checking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="65">
+        <v>3</v>
+      </c>
+      <c t="inlineStr" r="B5">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C5">
+        <is>
+          <t xml:space="preserve">RAHANAS</t>
+        </is>
+      </c>
+      <c r="D5" s="65">
+        <v>8848991304</v>
+      </c>
+      <c t="inlineStr" r="E5">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C3">
+      <c t="inlineStr" r="F5">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G5">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H5">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I5">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J5">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K5">
+        <is>
+          <t xml:space="preserve">Tommorow coming</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="65">
+        <v>4</v>
+      </c>
+      <c t="inlineStr" r="B6">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C6">
+        <is>
+          <t xml:space="preserve">munaver</t>
+        </is>
+      </c>
+      <c r="D6" s="65">
+        <v>8590020444</v>
+      </c>
+      <c t="inlineStr" r="E6">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F6">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G6">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H6">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I6">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J6">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K6">
+        <is>
+          <t xml:space="preserve">size problem contact in two days</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="65">
+        <v>5</v>
+      </c>
+      <c t="inlineStr" r="B7">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C7">
+        <is>
+          <t xml:space="preserve">ATHUL</t>
+        </is>
+      </c>
+      <c r="D7" s="65">
+        <v>9061301868</v>
+      </c>
+      <c t="inlineStr" r="E7">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F7">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G7">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H7">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I7">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J7">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K7">
+        <is>
+          <t xml:space="preserve">just checking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="65">
+        <v>6</v>
+      </c>
+      <c t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
         <is>
           <t xml:space="preserve">Praveen</t>
         </is>
       </c>
-      <c r="D3" s="65">
+      <c r="D8" s="65">
         <v>9747181097</v>
       </c>
-      <c t="inlineStr" r="E3">
+      <c t="inlineStr" r="E8">
         <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F3">
+      <c t="inlineStr" r="F8">
         <is>
           <t xml:space="preserve">VISHNU N</t>
         </is>
       </c>
-      <c t="inlineStr" r="G3">
+      <c t="inlineStr" r="G8">
         <is>
           <t xml:space="preserve">Loss</t>
         </is>
       </c>
-      <c t="inlineStr" r="H3">
+      <c t="inlineStr" r="H8">
         <is>
           <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
-      <c t="inlineStr" r="I3">
+      <c t="inlineStr" r="I8">
         <is>
           <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
-      <c t="inlineStr" r="J3">
+      <c t="inlineStr" r="J8">
         <is>
           <t xml:space="preserve">-</t>
         </is>
       </c>
-      <c t="inlineStr" r="K3">
+      <c t="inlineStr" r="K8">
         <is>
           <t xml:space="preserve">came for photo</t>
         </is>

--- a/data/lossofsale_sg_vatakara.xlsx
+++ b/data/lossofsale_sg_vatakara.xlsx
@@ -209,9 +209,9 @@
     <col min="6" max="6" width="10.8" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
-    <col min="9" max="9" width="36.45" customWidth="1"/>
+    <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="43.2" customWidth="1"/>
+    <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">pranav</t>
+          <t xml:space="preserve">Rahul</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>9746271355</v>
+        <v>9562201952</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">24-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">ARJUN P</t>
+          <t xml:space="preserve">VISHNU N</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">just checking</t>
+          <t xml:space="preserve">kurtha collection not available</t>
         </is>
       </c>
     </row>
@@ -337,20 +337,20 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">SAYOOJ</t>
+          <t xml:space="preserve">shafnas</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>9539251325</v>
+        <v>8136863051</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -390,20 +390,20 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">RAHANAS</t>
+          <t xml:space="preserve">nihal</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>8848991304</v>
+        <v>9037517955</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">24-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">Tommorow coming</t>
+          <t xml:space="preserve">next month function afeter coming and booking</t>
         </is>
       </c>
     </row>
@@ -443,20 +443,20 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">munaver</t>
+          <t xml:space="preserve">pranav</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>8590020444</v>
+        <v>9746271355</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
@@ -471,12 +471,12 @@
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">size problem contact in two days</t>
+          <t xml:space="preserve">just checking</t>
         </is>
       </c>
     </row>
@@ -496,20 +496,20 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">ATHUL</t>
+          <t xml:space="preserve">SAYOOJ</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>9061301868</v>
+        <v>9539251325</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
@@ -529,7 +529,7 @@
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -549,50 +549,368 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">RAHANAS</t>
+        </is>
+      </c>
+      <c r="D8" s="65">
+        <v>8848991304</v>
+      </c>
+      <c t="inlineStr" r="E8">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C8">
+      <c t="inlineStr" r="F8">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G8">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H8">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J8">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K8">
+        <is>
+          <t xml:space="preserve">Tommorow coming</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">munaver</t>
+        </is>
+      </c>
+      <c r="D9" s="65">
+        <v>8590020444</v>
+      </c>
+      <c t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve">size problem contact in two days</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">ATHUL</t>
+        </is>
+      </c>
+      <c r="D10" s="65">
+        <v>9061301868</v>
+      </c>
+      <c t="inlineStr" r="E10">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve">just checking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
         <is>
           <t xml:space="preserve">Praveen</t>
         </is>
       </c>
-      <c r="D8" s="65">
+      <c r="D11" s="65">
         <v>9747181097</v>
       </c>
-      <c t="inlineStr" r="E8">
+      <c t="inlineStr" r="E11">
         <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F8">
+      <c t="inlineStr" r="F11">
         <is>
           <t xml:space="preserve">VISHNU N</t>
         </is>
       </c>
-      <c t="inlineStr" r="G8">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H8">
+      <c t="inlineStr" r="G11">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H11">
         <is>
           <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
-      <c t="inlineStr" r="I8">
+      <c t="inlineStr" r="I11">
         <is>
           <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
-      <c t="inlineStr" r="J8">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K8">
+      <c t="inlineStr" r="J11">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K11">
         <is>
           <t xml:space="preserve">came for photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">ABINAV</t>
+        </is>
+      </c>
+      <c r="D12" s="65">
+        <v>9744047563</v>
+      </c>
+      <c t="inlineStr" r="E12">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">VISHNU N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K12">
+        <is>
+          <t xml:space="preserve">just checking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">Ajmal</t>
+        </is>
+      </c>
+      <c r="D13" s="65">
+        <v>8943423460</v>
+      </c>
+      <c t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve">26-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">VISHNU N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J13">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K13">
+        <is>
+          <t xml:space="preserve">will cheke with family and call</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">000</t>
+        </is>
+      </c>
+      <c r="D14" s="65">
+        <v>9496101363</v>
+      </c>
+      <c t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve">VISHNU N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve">wantbmore collection</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_vatakara.xlsx
+++ b/data/lossofsale_sg_vatakara.xlsx
@@ -914,6 +914,324 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">Abhishek</t>
+        </is>
+      </c>
+      <c r="D15" s="65">
+        <v>8078946799</v>
+      </c>
+      <c t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">06-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">VISHNU N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K15">
+        <is>
+          <t xml:space="preserve">just checking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">HASHIM</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>7736621379</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">VISHNU N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">jst cheaking conform in evening</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">NISHAD</t>
+        </is>
+      </c>
+      <c r="D17" s="65">
+        <v>8289924057</v>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">kurtha</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">Amal</t>
+        </is>
+      </c>
+      <c r="D18" s="65">
+        <v>8089143196</v>
+      </c>
+      <c t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">26-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">VISHNU N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">conform later January function</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">harshan</t>
+        </is>
+      </c>
+      <c r="D19" s="65">
+        <v>9048520130</v>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">25-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">just checking all nearby stores</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">Abhiram</t>
+        </is>
+      </c>
+      <c r="D20" s="65">
+        <v>9544484863</v>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">ARJUN P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">just checking and after coming</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
